--- a/steps docs/Test Case/Test Case.xlsx
+++ b/steps docs/Test Case/Test Case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -137,12 +137,226 @@
       <t>Functionality</t>
     </r>
   </si>
+  <si>
+    <t>Checking the Student (Freshmen/Transferee) gets a response when Admins have Apporved their Application Forms</t>
+  </si>
+  <si>
+    <t>Checking the Responsiveness between Student-Admin relationship when using the system</t>
+  </si>
+  <si>
+    <t>You must have a Student Account for STEPS
+You must Log in.
+Apply all Requirements and Wait for the Admin to Approve</t>
+  </si>
+  <si>
+    <t>1. Login STEPS (Student)
+2. Comply all the Requirements then wait
+3. Admin will Approve the requirements</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Student)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+username: rian
+Password: password
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Admin)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+username: sao
+Password: password</t>
+    </r>
+  </si>
+  <si>
+    <t>When the Admin has approved the student's requirements, it should be also Approved in Student's side</t>
+  </si>
+  <si>
+    <t>Requirements Approved</t>
+  </si>
+  <si>
+    <t>Checking if the student can't resume without a Student ID</t>
+  </si>
+  <si>
+    <t>Checking the security of the system</t>
+  </si>
+  <si>
+    <t>1. Login STEPS (Student)
+2. Comply all the Requirements then wait
+3. Not input a student ID</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Student)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+username: rian
+Password: password
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Admin)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+username: guidance
+Password: password</t>
+    </r>
+  </si>
+  <si>
+    <t>The System should only continue if the student has a student ID already</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>username:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> masteradmin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Password: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">password
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Checking if the deletion of the Account would ask for your Confirmation or not</t>
+  </si>
+  <si>
+    <t>Checking the System if it's user-friendly</t>
+  </si>
+  <si>
+    <t>You must have a Student Account for STEPS
+You must Log in as a Master Admin.</t>
+  </si>
+  <si>
+    <t>1. Login STEPS (MasterAdmin)
+2. Delete an account.</t>
+  </si>
+  <si>
+    <t>Confirmation must be asked first before it could be deleted.</t>
+  </si>
+  <si>
+    <t>Account deleted when "Remove" button wa clicked</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,14 +368,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -188,6 +394,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -203,7 +425,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -274,11 +496,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -297,8 +528,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -308,7 +537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -317,11 +546,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,15 +871,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:J23"/>
+  <dimension ref="C4:AX23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AQ5" sqref="AQ5:AX6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="4" customWidth="1"/>
@@ -640,10 +887,37 @@
     <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.28515625" customWidth="1"/>
+    <col min="47" max="47" width="14.42578125" customWidth="1"/>
+    <col min="48" max="48" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,147 +942,363 @@
       <c r="J5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="3:10" ht="243.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="12" t="s">
+      <c r="M5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:50" ht="243.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="14" t="s">
         <v>19</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="3:10" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="13" t="s">
+      <c r="M6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="N6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="O6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="P6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="Q6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="R6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z6" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB6" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ6" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL6" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN6" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV6" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AW6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AX6" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="3:50" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+    </row>
+    <row r="8" spans="3:50" ht="210" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="6"/>
       <c r="G9" s="2"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="10"/>
+      <c r="I9" s="18"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="10"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="10"/>
+      <c r="I11" s="18"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="6"/>
       <c r="G12" s="2"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="10"/>
+      <c r="I12" s="18"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="10"/>
+      <c r="I13" s="18"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="6"/>
       <c r="G14" s="2"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="10"/>
+      <c r="I14" s="18"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="6"/>
       <c r="G15" s="2"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="10"/>
+      <c r="I15" s="18"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="6"/>
       <c r="G16" s="2"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="10"/>
+      <c r="I16" s="18"/>
       <c r="J16" s="8"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
@@ -818,7 +1308,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="2"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="10"/>
+      <c r="I17" s="18"/>
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
@@ -828,7 +1318,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="2"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="10"/>
+      <c r="I18" s="18"/>
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
@@ -838,7 +1328,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="2"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="10"/>
+      <c r="I19" s="18"/>
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
@@ -848,7 +1338,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="2"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="10"/>
+      <c r="I20" s="18"/>
       <c r="J20" s="8"/>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
@@ -858,7 +1348,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="2"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="10"/>
+      <c r="I21" s="18"/>
       <c r="J21" s="8"/>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
@@ -868,7 +1358,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="2"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="10"/>
+      <c r="I22" s="18"/>
       <c r="J22" s="8"/>
     </row>
     <row r="23" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -878,7 +1368,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="3"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="11"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="9"/>
     </row>
   </sheetData>

--- a/steps docs/Test Case/Test Case.xlsx
+++ b/steps docs/Test Case/Test Case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="56">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -349,7 +349,109 @@
     <t>Confirmation must be asked first before it could be deleted.</t>
   </si>
   <si>
-    <t>Account deleted when "Remove" button wa clicked</t>
+    <t>Account deleted when "Remove" button was clicked</t>
+  </si>
+  <si>
+    <t>Checking the redirections of every links and pages during deployment to server</t>
+  </si>
+  <si>
+    <t>Checking if the links and pages are redirected properly</t>
+  </si>
+  <si>
+    <t>You must have accessted the STEPS Portal</t>
+  </si>
+  <si>
+    <t>1. Visit STEPS URL
+2. Click links</t>
+  </si>
+  <si>
+    <t>No Data Needed</t>
+  </si>
+  <si>
+    <t>Pages and Links must redirect to its proper URL</t>
+  </si>
+  <si>
+    <t>Pages and Links are redirected to localhost instead of server's IP</t>
+  </si>
+  <si>
+    <t>Username's Case sensitivity check during login</t>
+  </si>
+  <si>
+    <t>Checking the username's validity</t>
+  </si>
+  <si>
+    <t>1. You must have a STEPS Account</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>username:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> madmax
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Password: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">password
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Visit STEPS URL
+2. Click sign in with your account
+3. Type either all caps or non-caps or alternate caps for username
+(e.g. from madmax to Madmax or MADMAX)
+</t>
+  </si>
+  <si>
+    <t>System must check for the Username's Accuracy in Case Sensitivity
+(e.g. if Username is madmax, well Madmax   and MADMAX is invalid)</t>
+  </si>
+  <si>
+    <t>Username is accepted regardless of case sensitivity</t>
   </si>
 </sst>
 </file>
@@ -871,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:AX23"/>
+  <dimension ref="C4:BP23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AQ5" sqref="AQ5:AX6"/>
+    <sheetView tabSelected="1" topLeftCell="BC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BI5" sqref="BI5:BP6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,11 +1015,23 @@
     <col min="47" max="47" width="14.42578125" customWidth="1"/>
     <col min="48" max="48" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="3:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1038,8 +1152,56 @@
       <c r="AX5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="3:50" ht="243.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AZ5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="BN5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:68" ht="243.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="10" t="s">
         <v>20</v>
       </c>
@@ -1160,8 +1322,56 @@
       <c r="AX6" s="24" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="3:50" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AZ6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="BC6" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE6" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="BF6" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="BG6" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="BJ6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="BK6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="BL6" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="BM6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="BN6" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="BO6" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP6" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="3:68" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
@@ -1195,7 +1405,7 @@
       <c r="AC7" s="23"/>
       <c r="AD7" s="23"/>
     </row>
-    <row r="8" spans="3:50" ht="210" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:68" ht="210" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="11" t="s">
         <v>22</v>
       </c>
@@ -1221,7 +1431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:68" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1231,7 +1441,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:68" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1241,7 +1451,7 @@
       <c r="I10" s="18"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:68" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1251,7 +1461,7 @@
       <c r="I11" s="18"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:68" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1261,7 +1471,7 @@
       <c r="I12" s="18"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:68" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1271,7 +1481,7 @@
       <c r="I13" s="18"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:68" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1281,7 +1491,7 @@
       <c r="I14" s="18"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:68" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1291,7 +1501,7 @@
       <c r="I15" s="18"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:68" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>

--- a/steps docs/Test Case/Test Case.xlsx
+++ b/steps docs/Test Case/Test Case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="60">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -55,9 +55,6 @@
   <si>
     <t>Username: rian
 Password: password</t>
-  </si>
-  <si>
-    <t>Login must be successful</t>
   </si>
   <si>
     <t>Login Successful</t>
@@ -97,50 +94,6 @@
     <t>Registration must be Successful</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Checking the Student </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(Freshmen/Transferee) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Registration</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Chceck Login </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Functionality</t>
-    </r>
-  </si>
-  <si>
-    <t>Checking the Student (Freshmen/Transferee) gets a response when Admins have Apporved their Application Forms</t>
-  </si>
-  <si>
     <t>Checking the Responsiveness between Student-Admin relationship when using the system</t>
   </si>
   <si>
@@ -209,9 +162,6 @@
     <t>Requirements Approved</t>
   </si>
   <si>
-    <t>Checking if the student can't resume without a Student ID</t>
-  </si>
-  <si>
     <t>Checking the security of the system</t>
   </si>
   <si>
@@ -332,9 +282,6 @@
     </r>
   </si>
   <si>
-    <t>Checking if the deletion of the Account would ask for your Confirmation or not</t>
-  </si>
-  <si>
     <t>Checking the System if it's user-friendly</t>
   </si>
   <si>
@@ -350,9 +297,6 @@
   </si>
   <si>
     <t>Account deleted when "Remove" button was clicked</t>
-  </si>
-  <si>
-    <t>Checking the redirections of every links and pages during deployment to server</t>
   </si>
   <si>
     <t>Checking if the links and pages are redirected properly</t>
@@ -453,12 +397,264 @@
   <si>
     <t>Username is accepted regardless of case sensitivity</t>
   </si>
+  <si>
+    <t>Test Case Number</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Logging in must be successful</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Test Case No.</t>
+  </si>
+  <si>
+    <r>
+      <t>Checking the Student</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Freshmen/ Transferee)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Registration
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check  Use Case Figure 1.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Checking the Student (Freshmen/Transferee) gets a response when Admins have Apporved their Application Forms
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check Use Case Figure 3.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chceck Login </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Functionality
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chech Use Case Figure 1.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Checking if the student can't resume without a Student ID
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Checck Use Case Figure 4.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Checking if the deletion of the Account would ask for your Confirmation or not
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check Use Case Figure 1.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Checking the redirections of every links and pages during deployment to server
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check Use Case Figure 1.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,6 +708,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -527,7 +777,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -542,19 +792,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -611,38 +848,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -654,8 +888,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -665,12 +899,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -973,51 +1225,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:BP23"/>
+  <dimension ref="A4:BP23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BI5" sqref="BI5:BP6"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BC6" sqref="BC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="4" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="13" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.28515625" customWidth="1"/>
-    <col min="47" max="47" width="14.42578125" customWidth="1"/>
+    <col min="45" max="45" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.5703125" customWidth="1"/>
+    <col min="52" max="52" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="17.7109375" bestFit="1" customWidth="1"/>
@@ -1030,8 +1297,14 @@
     <col min="68" max="68" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="3:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>50</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1056,124 +1329,124 @@
       <c r="J5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="W5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="AB5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AF5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AG5" s="1" t="s">
+      <c r="AH5" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI5" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AH5" s="1" t="s">
+      <c r="AK5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AI5" s="1" t="s">
+      <c r="AL5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AJ5" s="5" t="s">
+      <c r="AM5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AK5" s="1" t="s">
+      <c r="AN5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AL5" s="1" t="s">
+      <c r="AO5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AM5" s="1" t="s">
+      <c r="AP5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AN5" s="1" t="s">
+      <c r="AQ5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AQ5" s="1" t="s">
+      <c r="AS5" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT5" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AR5" s="1" t="s">
+      <c r="AV5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AS5" s="1" t="s">
+      <c r="AW5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AT5" s="5" t="s">
+      <c r="AX5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AU5" s="25" t="s">
+      <c r="AY5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AV5" s="1" t="s">
+      <c r="AZ5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AW5" s="1" t="s">
+      <c r="BA5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AX5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="BB5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD5" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BF5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BG5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BI5" s="1" t="s">
@@ -1188,7 +1461,7 @@
       <c r="BL5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BM5" s="25" t="s">
+      <c r="BM5" s="23" t="s">
         <v>4</v>
       </c>
       <c r="BN5" s="1" t="s">
@@ -1201,314 +1474,430 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="3:68" ht="243.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:68" ht="243.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26">
+        <v>1</v>
+      </c>
+      <c r="B6" s="25">
+        <v>43108</v>
+      </c>
       <c r="C6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="26">
+        <v>2</v>
+      </c>
+      <c r="M6" s="25">
+        <v>43111</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="17" t="s">
+      <c r="Q6" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="U6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="R6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="S6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="W6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="X6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y6" s="20" t="s">
+      <c r="W6" s="26">
+        <v>4</v>
+      </c>
+      <c r="X6" s="25">
+        <v>43111</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Z6" s="21" t="s">
+      <c r="AF6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH6" s="26">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="25">
+        <v>43119</v>
+      </c>
+      <c r="AJ6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM6" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO6" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS6" s="26">
+        <v>6</v>
+      </c>
+      <c r="AT6" s="25">
+        <v>43135</v>
+      </c>
+      <c r="AU6" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AX6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="BI6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="BL6" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="BM6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="BN6" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO6" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="BP6" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="24"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="W7" s="26">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X7" s="25">
+        <v>43112</v>
+      </c>
+      <c r="Y7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AA6" s="11" t="s">
+      <c r="AA7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AB6" s="22" t="s">
+      <c r="AC7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC6" s="17" t="s">
+      <c r="AD7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AD6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH6" s="11" t="s">
+      <c r="AE7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF7" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH7" s="26">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AI7" s="25">
+        <v>43120</v>
+      </c>
+      <c r="AJ7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM7" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AI6" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ6" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL6" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM6" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN6" s="24" t="s">
+      <c r="AO7" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="AQ6" s="11" t="s">
+      <c r="AP7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ7" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS7" s="26">
+        <v>6.1</v>
+      </c>
+      <c r="AT7" s="25">
+        <v>43136</v>
+      </c>
+      <c r="AU7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AR6" s="11" t="s">
+      <c r="AW7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AS6" s="20" t="s">
+      <c r="AX7" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AT6" s="21" t="s">
+      <c r="AY7" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AU6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AV6" s="22" t="s">
+      <c r="AZ7" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AW6" s="17" t="s">
+      <c r="BA7" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="AX6" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="AZ6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="BA6" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="BB6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="BC6" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="BD6" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="BE6" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="BF6" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="BG6" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="BI6" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="BJ6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="BK6" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="BL6" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="BM6" s="11" t="s">
+      <c r="BB7" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="BN6" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="BO6" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="BP6" s="24" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="7" spans="3:68" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="23"/>
+    <row r="8" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="14"/>
     </row>
-    <row r="8" spans="3:68" ht="210" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="6"/>
       <c r="G9" s="2"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="18"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="8"/>
+      <c r="L9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:68" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="18"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="8"/>
+      <c r="L10" s="26">
+        <v>3</v>
+      </c>
+      <c r="M10" s="25">
+        <v>43109</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="18"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="6"/>
       <c r="G12" s="2"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="18"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="18"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="6"/>
       <c r="G14" s="2"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="18"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="6"/>
       <c r="G15" s="2"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="18"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="3:68" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="6"/>
       <c r="G16" s="2"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="18"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="8"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
@@ -1518,7 +1907,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="2"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="18"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
@@ -1528,7 +1917,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="2"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="18"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
@@ -1538,7 +1927,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="2"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="18"/>
+      <c r="I19" s="17"/>
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
@@ -1548,7 +1937,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="2"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="18"/>
+      <c r="I20" s="17"/>
       <c r="J20" s="8"/>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
@@ -1558,7 +1947,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="2"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="18"/>
+      <c r="I21" s="17"/>
       <c r="J21" s="8"/>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
@@ -1568,7 +1957,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="2"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="18"/>
+      <c r="I22" s="17"/>
       <c r="J22" s="8"/>
     </row>
     <row r="23" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1578,7 +1967,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="3"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="19"/>
+      <c r="I23" s="18"/>
       <c r="J23" s="9"/>
     </row>
   </sheetData>
